--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/67_Samsun_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/67_Samsun_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128BFE12-0D63-4A5B-9E72-18DA43CBD9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DDE14E0-7F1C-476B-9122-7D09B71B33D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{0DA503D3-6572-4094-873C-CB143B063CC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{090D562D-F62C-46D6-9F6E-5EA98C9D57BC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -958,14 +958,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BD0AF61B-3AD1-404E-A2EA-C6E3F035F2D9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3011A04B-FAF4-472C-B303-14FA622B1CE6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EB0DAC22-9C19-44C4-883E-6428D0890C04}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E28E883C-DFF3-42AB-8EEF-3C8E0D559765}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{1E503D3B-8039-4959-A5A8-526AEADFC6EC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CD4F35C0-66E7-4C5B-84A9-A2F3C6716DA8}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{B8937BD1-C42B-42EE-AD3C-E3BD32D37F08}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7C8589C3-57DF-4347-90FD-79C896F8B790}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{47913748-779A-4F77-83B6-1FA8F385347F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2A81E3E-55D1-4EE1-81B6-DECAAF590D92}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{12B574BD-3828-44CD-B009-D7ECB8B6FF08}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4636A973-BC53-4939-A723-F2C70B48FBCE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6CEA4B1B-D718-4906-A2B3-581FC3531F0B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{278730E6-D29A-4840-8A13-1AB657E119C8}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A5CD24CB-4D0F-4272-9FBD-A2AD0FE5C0E7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{42B46ADF-2EC1-445C-86F8-ABD114CCA717}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0096C55-9B57-4BBC-9273-5A4746B35473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C4FEE7-3813-4762-9F21-E906C6B67FC3}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2603,18 +2603,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AB68A87-ED95-4B1B-9B1D-5F1C739E1707}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D86FFB18-0D08-44F5-8E55-7BEF4C9A3BD8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14678750-3B01-41C1-AE65-2701FDA2C7E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25B52DA9-C824-4239-8A0A-A23DC174618B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1A7F01E-AFB4-4002-9EA8-6798D9A6166E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49BF7203-C4FB-48D4-9381-5FAEACCC6154}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DC51A4F-1B9F-4268-8FBC-229C07595F31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4999633-D143-40D4-89BB-7D563AB698C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90FB51FE-8806-47E6-8CB6-0CFBB2A7D652}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FCB3A42-82C5-4109-923B-4501A718F457}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DB1517E-312D-4337-B0DC-3DB75822161A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63E20138-9999-44DB-ABB2-689A781DE05E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC8C68EC-1DD4-442F-97AA-81141F593983}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{723BA9E9-24B8-4376-BE69-BDB61D19F304}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD8AF9A9-D956-47D8-B395-CC428C6C0A74}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FAF4FDB-41A0-4CAC-A469-D1222F28D7D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A77F975-97D3-4F7F-BC19-844A15BF4BED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84A6208C-B53F-41E7-93D6-52CBD4A078CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{986E0716-2971-4770-BBD2-A4DA34C641BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3544C39-4AB5-4DBD-BD92-0B8F8F80F29B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C79F59F2-5240-484D-80B2-ABC6CF2DFFE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5BE1000-B091-4792-B772-73C3BF80A74A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9211B30-7108-46F1-BC0F-A910BAE47140}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B2E3420-257E-4829-8205-ADF2281D0FED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9683F62-6A0C-4EA7-8E04-62FA8A5021B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC471A5B-F31B-422F-8CA7-6D2AEA2F7EE9}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3887,18 +3887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E6F7B1-3129-4C15-AD29-A046D92C783A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD1BEDAF-3AB6-4900-94E9-F8C6C6A19018}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09589CA3-3465-4CFF-97DE-217A9131B4AE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD96B0B7-C029-41B1-ABE8-61D3499FD6CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4BF08D0-FF91-4A13-B364-AABF13E28B1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36789A27-2B08-48F4-9F85-F6E7D1283F65}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A21940F3-5B67-415A-A9E7-5DD00B4CB749}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{986C7B49-0072-419E-AADF-C17069A9D16F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9E5892B-0A34-48E5-9DBE-0AE1EA14831C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD1A4A33-E1B1-4B0F-BA5E-0BD8B0B87FC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CBCEAAA-C07F-48D6-B6BA-DEBE86BC7466}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15304036-CFB8-4D5A-845E-5550E301FE7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6366A278-B02D-44A0-A0D0-46146A270E41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D90ED237-9AD8-41A6-B08D-259CB941C24C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{224D8BE9-04FC-4261-8909-2C1E01A27795}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0912AE2-9EDF-466D-A21B-4BB43E5DAA59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1DE47B1-FC78-468B-8E4C-197A9D8EAB21}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{111AF590-239B-4F9F-9995-16B7C391E8D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D58DE962-4D1D-4168-B799-21B1D2B6BDF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D28DEE45-F15B-4F06-B4EC-17741F3E7CDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9240AA9-583D-433F-8C69-19D7DEFFF1BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDD7303A-45EC-4E8F-A3FA-399BD40B09F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EDF55E8-1185-404A-B414-85637D53BC28}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2900D970-8FC7-4931-A2E2-F5C3819DB1A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C9AA3-3962-44E9-85EE-A855C51C933B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E749B0-B580-46AA-B91D-16EFF34071A3}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5167,18 +5167,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13FC85C7-6003-4E7D-A1C1-F7F0F527E74D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8669357-8BF5-46C2-B6A0-13933DE8EC61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D514F56-E85D-42BC-A0BA-70F23F9B262F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F78CFB33-9EED-4D0A-9CB0-154BB87CA9DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B13F697B-9174-4014-8F22-C46474587AC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6B8187F-AE16-4A64-A6DA-D482368622FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A00A677-8483-4E7F-87A0-1B9EE477FBC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6996B125-1170-4DE8-B2F6-4646F17378AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF1E8895-AFD6-4EAE-86A3-0B8A4D61C592}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{100348A6-9068-4EA6-B02F-DEFC7CC3A9D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6107C56E-926B-4420-A794-E0563141F468}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6A1A951-0955-4C85-8D04-4933CD5896DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6920124-314D-4A7B-86F8-1425864005ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{280A1322-FF7C-4C7E-A58E-28149484B6BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E3554A8-578E-4D26-B779-AE5951A3AA8E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BF482E86-1FD6-47E3-9844-50C0BAE9CC1E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7575A0B3-9853-4897-ADA8-10E275098623}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8138F6B7-FF61-4CA6-83DF-C7F26054A826}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3610883C-5063-4D66-9A05-52329B4B3134}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC0553B8-B9D3-4E08-A134-D8E6E62A0736}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31091F45-7AEF-44CB-89E6-74D172C99F0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{837FE604-6A1D-4874-898F-E26107E09B27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B23606A1-C1A9-490B-902B-9E35044D8547}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5F870D7-97A6-40DF-957B-70448AE3251D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5191,7 +5191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71E8FA1-252E-4C36-964C-5E8FF44962F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2DD7E-3338-4BC1-A6C2-ABD25D66E108}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6439,18 +6439,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC6A4C0A-733B-40AD-8A42-94775046B97B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44B1F6B8-9085-4DD1-9C02-7E5B4A7B0E4D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42965D9B-DBA1-433E-B3DE-E776F7D287CF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FAEB4BF2-BB35-40E6-A2E9-2ACB7535260F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34F5F958-8FAA-4338-AC28-446FBA920C50}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C29E4C8F-7489-42BE-B716-C00EEC89901B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B80EF13A-3FE4-4AB0-B44C-70659CE8CF42}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6A404BC-B1BE-4664-8E62-7EE2D3387F7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91AD8273-E479-42AE-9F06-CEF677583725}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F68DFD83-5071-41FC-B458-1C6E289EBEC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E920B81-8DFF-450A-B7E6-4BD22DA11949}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A57FF61C-111C-4081-A918-6645260EF804}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0737952F-1E54-40AD-B242-ECCFDCEBDF57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39CB2A2A-CD25-483B-A6F3-BEA1DB2EA194}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0138CAC7-32AA-4E8B-9040-D79C95C36BB6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B02B7F5C-53AE-4959-A3A7-937A05898F60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B7AD0DC-A0AF-43D5-81E9-6905305EECE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{457819E7-6DF9-48F1-B9F2-E860E1C8C47C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9B81558-25B7-4DC3-AB98-203EE23FC3D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6EDE543-CDB7-445A-A533-DADD78CE5196}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D8DE90F-B796-4577-B419-AF4FF4E96D87}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A7D4553-1ED5-4FE1-B0C3-B66661E316C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{001009D7-790E-4750-9189-DD7547AC9E90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C42A977-66B8-4E3D-97E3-31F783933AE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6463,7 +6463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5CE98B-14CE-4B13-A5DD-2E313B2E960D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9E9F42-0D17-4D49-B81C-2C27EFE88F0F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7735,18 +7735,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18484FF5-3F0E-4DFC-9C3F-B3ECFCD54F03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{886C3BD7-1F9B-4E0F-8EA8-46601ED0A30E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F93FF401-4F66-48FA-9DCB-8C76D007ED70}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{093A8CFE-6187-40CC-95FB-BF660B39C0D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1F444C3-DA97-4602-BA3E-7B870ED1E8B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1782E6DD-A250-4960-B0DB-EE509809205E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFEF797B-26AC-4E4D-8C87-4DFC0ED83ED7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4CDA462-41D0-417F-999E-D7298C30E7C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AD4C699-2D56-4195-9F2C-270C0C9818B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4ED620B3-6305-4E71-A5EA-B104536995F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EDCF466-EAF7-4FC1-A7C4-6ECC08842DEB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B055E07-2FB1-44D1-93CA-98A72A641E9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F559AA63-6652-4245-9255-7AD4FCE17BD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D2C9070-A808-410E-AA66-8427AF915670}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F51A9C79-04D3-4B27-BB8F-32C7B450CCC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A2E8007F-21C2-4506-B835-C6CE479C512C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63565B27-FA28-4238-987E-67A3B3B16760}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{723CB0E7-6817-4392-BDB9-E1E11DAE8598}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3959689B-555C-4BFE-AEB7-724172E22D17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A30BE51E-1712-4E68-8598-AD4C1BCCCB69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CCF6736-DD2D-4D70-A1E0-74AD58FB95A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{000F1B8E-66FD-4BC9-92F6-10C0649A8C17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F242758-9730-4310-A499-162D037F3907}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9521432-45DC-45A6-B107-392758FEF3A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7759,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F297E2C-09E1-4B60-A5B3-06FB23005F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A5934C-E998-4B5B-846A-8D7A4C064C93}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9031,18 +9031,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7821959-9960-41BF-9F4A-1C8CAE990BDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2532B445-4DED-4FC2-A69D-F9FE8B032EBE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E36C490-26AE-4CC5-BE0E-38CFE55C6EC0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D40FA1E1-973B-43F8-8A08-E0090FE6F03B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{981CAC41-B599-44F5-A27A-A984CEF745EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{806AF67A-5758-48B1-BD92-7B1031790EBF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98617F8C-9992-4994-BD73-A7C62AF9C93D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{260F3D5B-956B-4F18-AE8A-1188BF2F2229}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34CA36B1-5FEF-47A8-B8DC-2252F76C71F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1A82553-A4A1-40E2-A474-D657C311320C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAF9DFDE-5F39-4CAD-A154-817658815497}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33A2DA34-ABEE-44BF-BC31-AB67D7CBE18F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F91CAFF-235F-4445-8E93-5F9FA5B0BCFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE6291D5-1287-469E-BDD8-A64B7EC48953}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48375AF2-B647-4B80-9063-87C76ABA6DEB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{753CAA23-8C42-4BFF-BCF8-A4A5EB440249}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF1BCC77-2061-47B3-A76A-F6C949D18B25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDB4361E-EC5F-4226-B668-5515718F9321}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BCF8EFF-60B1-4120-96FB-2A49ECAC22C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12B0DE68-1D6A-4557-A84A-9A8AF1424E12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C13ACF17-76CE-42FC-88C3-8E0CE07AFFBC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{635D42F9-D04F-4936-9E1A-362BC7D961E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7159A7D-B1D7-45F5-9F8F-9494EC6C69F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{741B4990-9121-4450-A512-A7BCFC9C66D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9055,7 +9055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA85316-BF78-4547-9224-CB6BE6D8B1F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF75182-1DD6-4974-86A2-621E930967E0}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10323,18 +10323,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13ACDE09-0718-4AD3-B27A-9B58D607418E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7FA2B8C-D5FA-480E-B1A9-76A6B656CBBF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5B08140-FF86-4815-9F26-96C8134176F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C5A13AA-C4FB-49B2-B818-2F630384C141}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32255F31-A9EF-4940-BE23-1D12BECAE44F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5E3D5A0-6ADD-42C6-A536-FC470A287AA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEF2D1DE-FF95-49AE-935E-975A633CAEB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8F8C693-70E0-4E3D-A35E-855A0B0EE5DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A002A9DD-9759-4C54-B91C-E14B38B37BFF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3D1B4B4-78A8-4FE9-89E4-0F135CC46B55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1550473D-631A-40CC-B90C-C06EF24F4B0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4454B7B2-2E0A-43A3-BF17-331AC29D6581}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D78174D4-8C2B-4D02-95B5-B9EE12CB2B41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF5BF750-5AA2-464B-8856-B087D86AB714}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B963A225-5CEB-43FE-B250-FFE31EE30267}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0EA8D88-242F-410D-8DD5-41C50689C98B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C346704C-E887-400B-9BCE-74589DEB1FD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12C54C9A-0D9A-42F4-B383-ACF9DFD737EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6AEBA32-E8A8-4E58-B4C9-7A551ED6D624}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CE03CB6-4B24-4289-AEF7-723F1CFF02E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B226B45-CB8B-4A80-985C-99DF8B8CF5BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E8A928E-6A75-4304-AF0F-1303209131DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD552DAF-30AE-4902-9035-58AAEA69EBF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF329BD8-B3FA-4CD7-AA30-731AC625989B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10347,7 +10347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A62FC6-E514-4EAA-84A9-CFD2F94B648B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50277BF-E86A-46A3-AC89-96B712CB8D93}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11617,18 +11617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A2A2F8B-5569-4914-9204-F7C24F411F61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00102803-B1FF-4C34-8CAD-E11FBE8085DD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18BEA967-3E36-415D-B898-1E47E9FF19D2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C940281-2E40-49A6-B81D-660791D58F28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B031029-8E37-4936-B122-AC2E54ACCDC2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EF45926-E5F2-4B81-A24A-613719C16E4B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04BD38EF-A735-4861-844D-47622F8EB31F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E22B034-3347-4BCC-8001-DC85258F426A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{157E4DFC-B06C-41C5-AA44-00AF270C281B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40F5A404-0C91-49CC-88E3-D7BC6BB98791}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F515267-2263-443E-9D15-F037DE9C05DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B01947B-CB8D-4FB6-9A46-25AB024B91E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F1699FD-828D-4AB3-9CC2-6D654942E222}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C36616EB-5C11-42B3-BC49-9AD19E3B6248}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CBADAA8C-B934-4505-9603-9F64E05E3732}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{18A32136-02DA-4FC6-BD7C-A05C13F4DAB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{742A7191-984E-4E3C-A387-C78082ADF446}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDAE9127-C9C3-4FC1-B659-C4AB4D969215}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5D04B91-D54A-4C51-A495-76A05B9B9908}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7253AB8-0067-479D-83F4-512A11AF5613}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{170F79BC-37DA-4BC2-A5BB-A7438D5F4AF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42085875-2503-410C-BB6B-C56B7FA9FB83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77112C57-9B16-4859-AED7-0688E4B427B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B5597F2-69B4-4349-9B24-D4C73CF1244B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11641,7 +11641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E18748B-D84A-429F-A86A-DDA64DE88477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BBEBAF-9F0D-4947-86EF-44517C57325B}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12901,18 +12901,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3619188-1C64-4EE8-B0E5-C404F2401394}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9B5EB28-83DE-4A90-B34D-3182D51DDA53}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{634C674A-AAA0-48AB-96E7-11A9BDFBF745}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C56555C4-3BC0-4D1E-B624-C426455A0BC8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94D20ED6-D57B-4972-906B-C1879A6B4B14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A15AF129-5923-4FAC-AFEB-1073714E5C91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A9AE74D-B592-44FA-8C6C-1EF927C9573F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED9CF955-13EE-416D-A599-7574B134BDF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E16B7C6D-7F5E-4440-AE9B-46A4A0D971E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E1913DF-A4E4-4A34-AF22-7DF28B2DD81A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7274F6AE-53D3-45AE-BD69-59C035D283C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49F217AB-E242-4A04-BF48-0016EA6BBECE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBC264AD-701C-435E-8AD6-794EABE31485}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A3F6BEE-3E24-4B4B-801D-233A7785ECAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7898AE4E-F20D-4B53-913D-3E33CB83DFC0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{26699535-4498-403C-872F-6CC76BEFB299}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4EB9C54-BF6A-4156-943A-EE8B9D922679}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29B06AE3-8EB5-45D3-9FD8-C3BEEBFA8B81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{705098F3-5DED-4D4A-AC8E-BD0E25735155}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CC796E6-9E5B-4BF7-9E8A-A09037D3C467}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{828E0677-AA8E-40AE-94DB-9FAE9A4497C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1807154C-11B5-4EB7-B70E-BB5F144417B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F12C89D1-D6EC-4645-B5C3-E3B1975DD62A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BEABA96-DF78-4E25-8671-7595B6D5336D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12925,7 +12925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F37E0D3-6A16-4E1F-B143-DB167D7FF2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D2821-B03A-43BF-88FC-1630E8347B78}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14187,18 +14187,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{973D4BDF-1380-4BB9-A1D3-F74F9C616F64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4906F9E6-6E08-4E50-A79E-2C81783DC95D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{311637BE-BF0E-4AD7-87F4-5937D7E2AF0B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58FF5279-D15F-4E73-B1F2-24BA87517526}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FB94797-B052-456B-832C-9A06ABFF88BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6224B00C-4EA4-4E9F-B07F-C4159FE2C532}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8812F1D7-E2D2-4BC8-84CC-273F1061EC55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4884F784-A07B-4D41-A2F0-EDC7E8B70213}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D31D4F1D-D96B-4F2F-9C1C-C130CFFDA73D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE21430F-6031-4B9E-88CC-0AC098134CB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{585F14F0-6200-41C7-8017-1A7645C7774A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{733D90DF-3E6E-4B13-A7FE-E92047383F54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F365E89-7946-4732-B2E9-F8EB9640DFE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2F6FAE4-63BA-4757-A600-C45FABEC4C50}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{775DADBF-665B-422F-832B-C8BDEE5DB8FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D04C7ED-F640-4944-8778-A2588627C486}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2996CD6F-E490-45D6-9576-60D41F863C16}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0890933B-A378-4F00-B843-5FD5F0D19B28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1E24ADA-083C-445F-B336-12BE24B6E21B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3EF798D-06A0-4089-BBA5-CF3056AFA594}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C98060AA-9861-461C-BC73-819166CC9041}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{252C9F9B-0242-4FF7-8C53-2EC38E0E3E2A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15B83676-6DE6-4D7F-BB3B-45DF83BCDF6A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E26C016B-7A1B-4B54-83E1-6723798B8BDA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14211,7 +14211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30214A34-AE15-42F2-9D3B-85EF4E995F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4A8895-56B4-4403-8A09-4C2DDA2E58CE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15471,18 +15471,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0920E6F0-D1C9-4AEA-A5E6-380E76032F3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A0C84CE-77E9-4D65-B7A2-F692613E4A19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24830538-B0D0-4FE2-B9E2-94F91031561D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EAC395A-C08F-4FA6-A2DB-10747A34F69A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CAFCB2F-7632-4134-816C-6AD536599CB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7338039-81E7-4177-9FBA-5AE8906D3F0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E41B304-2720-4F31-B20F-38BF49360F88}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFC1776E-5020-43B2-8AA6-6B68576FE41E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00A90153-F4DA-4CF2-B8CC-595E23400328}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C23E9B3-A0EB-40C7-9909-040FA882D77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C582B336-F993-4BE4-B440-7C24B4494E9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85057E81-8ADD-4BDC-804E-E10CFBDC88C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F2E5676-BDF3-41ED-8213-B06D4978FC9D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64361BEA-5462-4246-AF83-5A5EC84B0643}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29901334-281A-48A8-AB48-B8D01BF366DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{680AB28C-DB93-475F-BFC7-8D2CF02BBFB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC973349-F99E-476B-B8E1-E9A7908668E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBD6654D-254A-4F40-9484-2F7D5E33A917}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7211EBB3-2B6B-403A-AE12-CBAC0B0866C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3081F694-4435-4D41-A9A0-BBD19F3A00A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A9C57FB-CAA9-4D9E-887F-CB8993B1F412}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C64906A-AE0B-4E22-8740-3E076BC1A26D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14D1C8CF-4C4C-49FB-AAE8-FA9691B8A2AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BA9D803-D46F-4DAF-8CD1-2C77488BC6B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15495,7 +15495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E65EC13-715D-4EA6-98CA-F09512C9CA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2035CAA7-442A-4185-BF51-4731945AD9DD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16755,18 +16755,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C1C25E2-CB23-4549-8D34-EFD1B8795DB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0DBFA47-5DC8-4AA4-9EEC-06BF2FBA915C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A686778-0A1A-4877-A405-9B70FE52D7F6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CFC7B0D1-7566-4DF5-86CF-6DA1377401E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{536267C9-BBB2-4266-854F-C922305D6A06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{966AE7B0-C160-4FD4-B520-1E3B910CDA04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C029502C-6490-480B-A13D-6579F35962E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F50B81A2-D5D9-4F54-B15A-22773D71ECE5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4FC9EB2-337E-4F63-AD31-336F9327F0D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{588D4EB4-3D81-481E-9392-9B16422106C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF6D4518-2715-4842-A0C9-7803974026AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{277E8E1E-D42F-4B84-A2EB-33CB1B9D2A77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD86980C-F16F-41D5-8ADC-470E3F216593}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCA0D93B-6E35-4653-8402-D253424EEC7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5415C5FD-2D1F-4188-BC54-DED2A23771CE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58458579-CF66-4E1F-92FE-0B4B0DEAAB74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{168D62E9-932D-4956-89DA-E5C46C59E098}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13E57AE2-63C8-4E7B-878C-67F956F4E46D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7365B61D-C1B7-4149-97F8-071341F7AF95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B517EFC-BB2F-408E-8E05-A2BA2B199881}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74AD0A69-6FFE-4898-A0A2-48D25E268D41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F61E288C-DB2F-4B79-A4A3-7BFF4A41A61D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9595CF23-F1C2-4ACB-BA8A-933F0D5B5CD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{124B43E7-6105-4F21-B202-C756F8AEBD49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
